--- a/data/海龟汤_2.xlsx
+++ b/data/海龟汤_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaminglow/Desktop/JM/jm_webapp/turtle_soup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaminglow/Desktop/JM/jm_webapp/turtle_soup/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104207CD-74C3-8E4D-AAA2-AEFFAC9E03DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32EEBF8-9A84-2545-894D-08B223721AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="518">
   <si>
     <t>title</t>
   </si>
@@ -938,6 +938,646 @@
   </si>
   <si>
     <t>气愤杀人的女演员</t>
+  </si>
+  <si>
+    <t>半瓶香水</t>
+  </si>
+  <si>
+    <t>我的妈妈最近有些反常，不但偷偷用我的香水穿我的衣服，还老是半夜出去。那天我实在忍不住向她理论，并发生了争执，结果不小心把她推倒在地，我赶忙上前扶她，却发现自己的双手沾满了鲜血。</t>
+  </si>
+  <si>
+    <t>我的妈妈前几天去世了，妈妈的去世对我产生了极大打击，以至于我产生了幻觉和梦游症，到了夜晚，梦游状态的我穿上妈妈生前给我买的漂亮衣服，喷上妈妈生前送我的香水，到她的墓地前和她聊天。那天我在照镜子时，把镜子里的自己幻想成了妈妈，我便与她理论，却不小心把镜子推倒了，镜子碎了一地，我赶忙用手去捡，手被玻璃割破，鲜血流了出来。</t>
+  </si>
+  <si>
+    <t>找到你了</t>
+  </si>
+  <si>
+    <t>哒..哒...哒....
+咚咚咚
+哒....哒...哒..
+哗啦哗啦
+哒..哒…哒…..“我找到你了哦”</t>
+  </si>
+  <si>
+    <t>我刚刚不小心目睹了一起杀人案，杀手发现了我后一直追着我，情急之下我躲进了卫生间，听着杀手的脚步声“哒哒哒”越来越近，我害怕的不敢出声，好在没多久“哒哒哒”的声音逐渐变小了，杀手应该已经走远了，我逐渐放下心来，可一不小心碰到了厕所的冲水装置，哗啦哗啦的水流声又引来了杀手，杀手低下头，从门低的缝隙看进来说道:“我找到你了哦”(哒后面的..越多，表示声音越大，杀手离我越近。咚咚咚是杀手敲厕所门的声音）</t>
+  </si>
+  <si>
+    <t>外婆的苹果</t>
+  </si>
+  <si>
+    <t>6岁时外婆告诉我不要吃黄苹果。13岁时，外婆告诉我不要吃青苹果。18岁时外婆告诉我不要吃红苹果。20岁时外婆去世了，我向外婆祈愿：以后所有的苹果都可以吃了。</t>
+  </si>
+  <si>
+    <t>从小我门家很穷，全依靠外婆种苹果生活，有了弟弟后，父母更是对弟弟偏爱有加，甚至想到要把我卖了，外婆知道后便种下有毒的黄苹果，后来家里只剩下了我和外婆...上中学的我，因为从小缺少父母的陪伴，性格比较软弱，经常受欺负，外婆看出了我的心思，于是便种下有毒的青苹果，售卖给了那些欺负我的同学，后来我度过了一段美好的中学时光...18岁那年，我放弃了外出上大学，留在了村子里和外婆一起种苹果，想着多给外婆一些陪伴，可村里人的闲言碎语让我倍感压力和迷茫，于是外婆种下了有毒的红苹果，两年后...外婆去了天堂，而整个村子都变沉默了，我站在院子里那颗苹果树下，告诉天上的外婆，以后我可以吃所有颜色的苹果了…(黄苹果毒了家人，青苹果毒了同学，红苹果是把村子里的人毒哑了，黄青红分别代表毒的人数，因为吃黄苹果的人最少，所以黄苹果毒的人最少）</t>
+  </si>
+  <si>
+    <t>永远在一起</t>
+  </si>
+  <si>
+    <t>我的妈妈很爱我，可自从下过一场大雨之后，她就把我关进了一个伸手不见五指的小黑屋，可当我再次见到她时，她已经变得面目全非！我知道，我们将会永远在一起！</t>
+  </si>
+  <si>
+    <t>我是一个漂亮的芭比娃娃，被妈妈带回家后的我得到了她的百般疼爱，无论她到哪都会把我带在身边，可在一次大雨过后，湿漉漉的我被她关进冰冷脏乱的仓库，日复一日年复一年，直到那天我听到外面传来阵阵痛哭的声音，我从仓库里被带了出来，躺在了一个面目全非的女人身边，通过旁边人们的交谈我才得知原来她就是那个曾经很爱我的妈妈，我挨着她冰冷的身体，我知道，一定是我的愿望成真啦，我知道，我们会永远在一起啦，哪怕，会一直身处黑暗。（妈妈死了，妈妈的家人和朋友决定把她和她所有的东西葬在一起，所以我知道我们将永远在一起）</t>
+  </si>
+  <si>
+    <t>诡异的记号</t>
+  </si>
+  <si>
+    <t>留学回家的我一次出门时，发现家门旁写了个“X”，我没有在意索性就擦掉了，可当天回到家时，发现那个X又出现了，心想可能是哪家孩子搞的吧，晚上我在家工作，突然从邻居家传来很大的动画片声，我被吵的无心工作，于是便敲响邻居家的门进行理论，第二天出门上班，门上的X却变成了O，正当我疑惑时，邻居家的门突然开了，而当我看到邻居时我也知道危险来了...</t>
+  </si>
+  <si>
+    <t>前段时间楼下一个小男孩被高空坠物砸死，他的父亲一直没找到凶手，伸冤无果的他便把整栋楼里的人都视为了凶手，他挨家挨户的进行了报复并留下记号，X代表已经报仇和无人居住，而O代表即将要下手的人家，因为之前我留学在外，邻居以为我家没人，而当我回国后，被邻居家的动画片声吵到并上面理论时，邻居发觉对面居然住的有人，随即变改了记号，第二天当我出门时，邻居也打开了房门把我抓了进去…</t>
+  </si>
+  <si>
+    <t>消失的姐姐</t>
+  </si>
+  <si>
+    <t>女儿问我姐姐去哪了？我矢口否认了姐姐的存在，可随后女儿拿出的照片却让我震惊了…</t>
+  </si>
+  <si>
+    <t>我和妹妹是孤儿，我为了让妹妹得到母爱，从小我便让妹妹称呼我为妈妈...后来我们被一个独居女人收养，女人让我们叫她姐姐，我以为我们终于有了家，但我没想到她收养我们的目的竟然是为了把我们卖掉，为了保护妹妹和自己，我杀了她，连同她的一切埋在了院子里，仿佛她不曾出现，我相信时间久了妹妹就会淡忘过去一切，可谁知一张不经意的照片却被妹妹挖了出来…</t>
+  </si>
+  <si>
+    <t>消失的妹妹</t>
+  </si>
+  <si>
+    <t>我把妹妹弄丢了，直到来年春天才找到...</t>
+  </si>
+  <si>
+    <t>每年冬天，我们那里都会下很大的雪，那天我和妹妹出去堆雪人，可妹妹却嫌弃我堆的雪人一点都不可爱，我生气了，于是我狠狠的推了妹妹一把，可没想到她却撞在了石头上，看着妹妹的尸体，我突发奇想，把妹妹的头装在了雪人的头上，看着我的雪人，我很满意，回到家后，妈妈问我妹妹去哪了，我没有告诉她，不然我完美的作品就要被破坏了。春天到了，雪人融化了，妹妹也终于出现了...</t>
+  </si>
+  <si>
+    <t>你妈真好</t>
+  </si>
+  <si>
+    <t>我去乡下出差，朋友给我打电话说“你妈真好…”，第二天回到家后我崩溃了。</t>
+  </si>
+  <si>
+    <t>回到家的我，看到了妈妈残缺的身体和没了呼吸的朋友。原来，因为我要去乡下出差，托朋友照顾体弱的妈妈，朋友是个厨师，但最近精神状态很差，后来我才知道他患上了精神病，他半夜发病把我妈妈当成了食物，并进行了烹饪...而我接到朋友打来的电话说“你妈真好”其实是因为乡下信号差的原因少听了一个字，而他真正说的是“你妈真好吃！”</t>
+  </si>
+  <si>
+    <t>生日</t>
+  </si>
+  <si>
+    <t>一个人过生日，邀请他所有的好朋友来参加。吹完蜡烛的时候，这个人把他所有的好朋友都杀了。</t>
+  </si>
+  <si>
+    <t>男主和朋友曾经一起去探险，一段时间后没有了食物，因为男主本身是一个盲人，所以这帮朋友都骗他说每人砍下一只手来吃，可最后只砍了男主一个人的手。之后有一次男主邀请朋友们来参加自己的生日聚会，吹完蜡烛后所有人都鼓掌了，男主发现只有自己的手被砍下来吃了，男主无法忍受这样的欺骗于是杀了所有的好朋友。</t>
+  </si>
+  <si>
+    <t>娃娃</t>
+  </si>
+  <si>
+    <t>我发现床头柜上放着一杯蜂蜜水和一块巧克力蛋糕，原本放在床头柜的娃娃却消失不见了。我知道男友再也回不来了。</t>
+  </si>
+  <si>
+    <t>我的男朋友有暴力倾向，经常对我拳打脚踢，我想离开，却又无能为力。那天沉默寡言的邻居送了我一个娃娃。我知道她对娃娃动了手脚，但我也确认他爱上了我。因此我天天对着娃娃哭诉男友的暴行，连一杯蜂蜜水，一块巧克力蛋糕都是奢求。那天男友动手之后摔门而去。我不知道抱着哇哇哭诉了多久，睡了过去。恍惚中一个陌生的身影伴随着滴嗒声来到我的身边。但我睡得更安心了。(滴嗒声是血滴在地上的声音，邻居砍下了男友的手用来解开我家的指纹锁，他给我带来了一杯蜂蜜水和一块巧克力蛋糕。)</t>
+  </si>
+  <si>
+    <t>布偶</t>
+  </si>
+  <si>
+    <t>一场意外后，妻子便开始把自己关在房间里，不肯出来。那天我突然听到她在嚎啕大哭，我急忙冲进房间里，却被眼前的一幕吓傻了。</t>
+  </si>
+  <si>
+    <t>我很爱我的妻子，有一天我发现妻子怀孕后，就开始精心准备迎接孩子的到来。结果我发现妻子竟然出轨了。为了孩子，我暂时隐忍，但是孩子出生后我发现孩子还不是我的。愤怒之下我精心策划了一场车祸，想让她们通通丧命。谁知妻子竟然活了下来。不过她疯了，她整日把自己关在二楼的婴儿房内，我也不管她，自己只是晚上回来睡个觉，不过经常在房子里闻到一些异味。这一天，我听到了婴儿房里传出嚎啕大哭，我急忙冲进房间。一阵恶臭袭来，我发现妻子怀里抱着的洋娃娃爬满蛆虫，她竟然把死去的孩子缝进了洋娃娃里！她一边抓去娃娃上的蛆虫，一边哭喊着：宝宝别怕，宝宝别怕。</t>
+  </si>
+  <si>
+    <t>相册</t>
+  </si>
+  <si>
+    <t>我是一名医生，一天一个人拿着一本相册放在我面前，我知道他们发现了我所有的秘密。</t>
+  </si>
+  <si>
+    <t>从小我就在继母的毒打下长大，她的那双丹凤眼更是我噩梦的源泉，终于有一天我杀了她，割下了她的眼皮放在我的相册里，我要让她好好的看着我以后的美好生活，长大以后，我成了一名眼科医生，就当我即将摆脱那个女人给我带来的阴影时，我遇到了一个病人，她的眼睛像极了我的继母，我控制不住自己，一看到那双眼睛我就想起了那个恶毒的女人，于是，我杀了那些长着丹凤眼的女人，渐渐地，我的相册厚了起来，而我也要因此付出代价了…（那个拿着相册到我面前的是警察）</t>
+  </si>
+  <si>
+    <t>洗头</t>
+  </si>
+  <si>
+    <t>晚上，我在寝室洗了个头，结果室友和我都死了。</t>
+  </si>
+  <si>
+    <t>我的父母是科研人员，但我却不幸得了绝症，在我弥留之际，父母为我打造了一副机器躯体，保住了我的大脑，但我的头不能进水，进水会短路，造成我的死亡，我已经很久没有洗头了，有洁癖的我，实在没法忍受，于是那天我趁着寝室没人，便把我的头拿下来清洗，可谁知，被突然回来的室友看见了，他大叫一声后吓的昏死过去，而我也因为惊吓而不小心把头丢进水盆里，导致大脑短路而死机。</t>
+  </si>
+  <si>
+    <t>减肥</t>
+  </si>
+  <si>
+    <t>在老公的帮助下，我成功减肥，但我在直播时突感身体不适，等我跑到厕所呕吐时却发现令人惊恐的一幕。</t>
+  </si>
+  <si>
+    <t>从小我就是吃不胖的体质，为了赚钱，男友让我做起了吃播，可前段时间感觉身体有些发福，身为医生的男友，在家为我做了抽脂手术，术后的我在直播时突感恶心不适，去到卫生间发现马桶堵了，当我抽抽出堵塞马桶的异物时，那竟然是我的baby！原来我身体发胖的原因竟是我有了身孕，但我并不知道，而他为了让我能继续直播赚钱，趁我麻醉时拿走了我的孩子...</t>
+  </si>
+  <si>
+    <t>你独自住在郊外，附近只有一户邻居，是一对养牛的夫妻。你们两家之间隔着一片草坪。有一天深夜，你被一阵喧闹声惊醒，之后听见了牛叫，牛撞开栅栏和牛吃草的声音。过了一段时间，你又听到有东西在撞自己家的门，但你没有理会，继续睡了过去。第二天，警察敲响了你家的门。</t>
+  </si>
+  <si>
+    <t>邻居夫妻吵架（喧闹声），丈夫一怒之下拔出妻子的舌头割了下来，并砍下了妻子的四肢，妻子发出嚎叫（牛叫声）。冷静下来后的丈夫自杀，妻子用身体撞开家门（牛撞开栅栏），用嘴在地上咬草含着止血（牛吃草），爬到你家门口撞门求救，因未被理会失血过多而死，清晨有人发现尸体报了警。</t>
+  </si>
+  <si>
+    <t>诡异的画像</t>
+  </si>
+  <si>
+    <t>迷路的女孩找到了间空屋子，她很疲惫但她睡不着。第二天清晨，累得睡着的她醒过来，发现了异样，恐惧地逃离了屋子。</t>
+  </si>
+  <si>
+    <t>迷路的女孩黄昏时遇到了一间小屋。屋里墙上挂了一幅画像。她决定先睡一觉，但她觉得画像里的人在盯着她看，内心不安，很久都没有睡着。第二天早上女孩醒来发现画像里的人不见了，意识到墙上的不是画，而是窗户，昨晚窗外有人盯着她看，发觉了真相的女孩吓坏了，逃离了屋子。</t>
+  </si>
+  <si>
+    <t>旧的八音盒</t>
+  </si>
+  <si>
+    <t>男孩和女孩从小是邻居，女孩过生日时，男孩送给她一个旧的八音盒，不久后女孩搬家了。</t>
+  </si>
+  <si>
+    <t>男孩一直在追女孩，女孩过生日时男孩送了她一个旧的八音盒，和她很小时候曾有过的一个八音盒一模一样，女孩很感动，就答应和男孩在一起。不久后女孩不小心把八音盒摔坏了，发现里面夹了一张照片，照片上是她小时候养过的狗狗，狗狗死后女孩很伤心，把照片放在八音盒夹层里和狗狗一起埋葬了。女孩知道了男孩是个变态，为了追她，把八音盒挖了出来，于是连夜搬走。</t>
+  </si>
+  <si>
+    <t>影子</t>
+  </si>
+  <si>
+    <t>一天我去公共厕所，那时已是晚上，我看见男厕所门口站着一个人后面是他的影子，手中还拿着什么，我吓了一跳，不过很快就冷静下来第二天天警察找到我,问我看到尸体为什么不报警，我想了想瞬间吓呆了。</t>
+  </si>
+  <si>
+    <t>因为晚上没有光，所以没有影子，那个男人的影子其实是一具尸体。</t>
+  </si>
+  <si>
+    <t>出租房</t>
+  </si>
+  <si>
+    <t>我搬进了一个新房子，房间里经常有类似于老鼠爬的声音，但毕竟便宜，我也睡的很香，没多久房东就谈了一个女朋友，老鼠的声音好像也没了，但突然的安静却让我不能安心入睡...</t>
+  </si>
+  <si>
+    <t>我早就知道房东在房顶偷窥我，但被人注视总会给我带来一种安全感，所以对于来自房顶的偷窥，我并没有感觉到任何不适，直到房东谈了女朋友，安静的天花板却让我辗转难眠，于是我趁房东帮我修电路的机会，让他永远的呆在了天花板上。透过那小小的黑洞，我知道他一直在看着我，我又能安心入眠了…（老鼠爬的声音是房东偷窥发出的声音）</t>
+  </si>
+  <si>
+    <t>冰淇淋</t>
+  </si>
+  <si>
+    <t>哥哥好后悔，如果那天自己吃了冰淇凌，弟弟就不会死了。</t>
+  </si>
+  <si>
+    <t>妈妈新买了一箱冰淇淋放在仓库的冰柜里，打算等过几天再放进冰箱，但她忘了关上冰柜的门。年幼的弟弟偷偷来到仓库玩耍，看到冰柜门是开的，便搬来小板凳，瞧见了里面的冰淇淋。他想要拿一支来吃，但很难够着，不小心失去平衡，一头栽倒掉了进去，冰箱门也因晃动盖上了。这时，哥哥正好放学回家，妈妈告诉他，“今天新买了冰淇淋，想吃的话可以去仓库拿哦！”哥哥拒绝了。直到吃晚饭的时候，大家才发现弟弟不见了，找了很久才在仓库的冰柜中找到，但弟弟已经死掉了。</t>
+  </si>
+  <si>
+    <t>外婆肉</t>
+  </si>
+  <si>
+    <t>我跟外婆说已经两个月没有吃过肉了，外婆告诉我，她这两天就去上班，到时候就有肉吃了，没过几天，外婆就给我做了一顿说是毛毛肉，可是我觉得毛毛肉不如之前的肉好吃，外婆笑了笑说再过两个月。</t>
+  </si>
+  <si>
+    <t>从小我们家就特别穷，一直以来靠外婆在学校当保洁阿姨来解决温饱，更别说吃上香喷喷的肉了，可突然有一天，外婆端来了满满一碗肉，我开心极了，转眼间来到暑假整整两个月假期，我一块肉没吃到，开学以后外婆再次端来满满一碗肉，她说这个是毛毛肉，可是味道却不如从前了，外婆说让我再等等，再过两个月就有肉吃了...</t>
+  </si>
+  <si>
+    <t>药水</t>
+  </si>
+  <si>
+    <t>婆婆给了我一瓶药水，我失去了最爱的男生。</t>
+  </si>
+  <si>
+    <t>我向婆婆求了一瓶神奇的药水，只要我爱的人喝了它，那个人就会永远钟爱于我，我爱的男孩喝了，可是第二天却死在了一片墓地中，原来药水需要当事人的头发做药引，而我当时戴的是假发，而假发的主人却是个刚刚去世不久的女人，怪不得婆婆摘我头发的时候，我竟然没有感觉。</t>
+  </si>
+  <si>
+    <t>贝尔公主</t>
+  </si>
+  <si>
+    <t>我是贝尔公主，父王给我准备了盛大的婚礼，可婚礼上我却看不清王子的脸...</t>
+  </si>
+  <si>
+    <t>我从小就喜欢那些凶猛的野兽，父王对我宠爱有佳，便默许了我这一爱好，长大后，我一直期待，能嫁给一位英勇的王子，但我的条件是：我的宠物们也能接受他。尽管我的美貌令无数王子争相来提亲，可一听到这个考验，他们就都被吓跑了，直到有一位王子出现，我听说他完成了这个考验。在婚礼上，我迫不及待的掀开头纱，想看清他的模样，可我根本看不清，因为，他被野兽咬掉了整张脸。</t>
+  </si>
+  <si>
+    <t>一盘排骨</t>
+  </si>
+  <si>
+    <t>生日那天爸爸端上来一盘排骨，并对我说了一句话，说完我痛哭了起来。</t>
+  </si>
+  <si>
+    <t>我是爸爸捡来的孩子，小的时候，爸爸哄我说我的妈妈是名特工，需要常年在国外执行任务，于是每年我的生日，爸爸都会端上一盘排骨，说是妈妈烧好邮回来的。随着我日渐懂事，爸爸知道曾经的谎言即将要被拆穿，爸爸便告诉我说“妈妈在一次任务中牺牲了”，后来我就再也没有吃到过妈妈邮来的排骨，直到今年，爸爸被查出来患有阿尔兹海默症(一种容易忘事的病)，直到生日那天，爸爸又端上一盘排骨，告诉我妈妈又给我寄排骨了。爸爸啊爸爸，你忘记了你告诉过我妈妈已经牺牲了啊…我早就知道我的特工妈妈就是你啊…</t>
+  </si>
+  <si>
+    <t>四岁的妈妈</t>
+  </si>
+  <si>
+    <t>幼儿园五岁的小朋友，竟然说她的妈妈只有四岁，我很疑惑，便提出了去她家家访，随后我在她家看到了让我惊恐的一幕...</t>
+  </si>
+  <si>
+    <t>我在她家看到了一个个被铁链拴着的女人，而一旁站着一个长相凶狠丑陋的彪形大汉。幼儿园的那个小朋友突然露出了不属于她这个年龄该有的诡笑...原来她不是五岁，而是二十五岁，只是从小得了一种长不大的病，而那个彪形大汉则是她的哥哥，她是为了给她哥哥找女人，便哄骗我们这些幼师来到家里进行迫害…而她那“四岁的妈妈”，是已经被骗来四年的女人…</t>
+  </si>
+  <si>
+    <t>我听到广播里的新闻后，先是庆幸而后痛哭起来。</t>
+  </si>
+  <si>
+    <t>我被一个连环杀人犯绑架了，他把我和几个女孩关在了一起，每隔一天他就会带出去一个女孩杀掉再抛尸...那天另一个女孩被带走后，就只剩我一个人了，我心想我的死期就要来了，但这次他却再也没有回来。之后我在广播里听到他被警察击毙的消息，我很庆幸自己活了下来，但紧接着我痛哭了起来，因为我想到，我可能再也出不去了...</t>
+  </si>
+  <si>
+    <t>奶奶的橘子树</t>
+  </si>
+  <si>
+    <t>我从奶奶房间拿了个橘子给爸爸，爸爸却惊恐万分。</t>
+  </si>
+  <si>
+    <t>我们家很穷，奶奶生前很疼我，知道我爱吃橘子，于是自己省吃俭用给我买橘子吃，时间久了便患上了精神类疾病，每天吃土充饥，身体也逐渐垮了，奶奶去世后，爸爸希望能继续领取养老补助，便隐瞒了奶奶去世的消息，奶奶就一个人冰冷的躺在她的房间里。时间过得很快，那天我看到奶奶房间的窗户被一根树枝捅破，几颗橘子挂在上面摇摇欲坠，我想这是奶奶送给我的橘子，我便高兴的跑到爸爸身边告诉了他，后来我才知道，原来是奶奶吃土时，把我埋的种子也一同吃了下去，土和奶奶变成了种子的养分，种子便开始慢慢的生根发芽开花结果...但我相信这棵橘子树就是奶奶，她是用她的爱换了一种方式永远陪伴着我...</t>
+  </si>
+  <si>
+    <t>乞丐</t>
+  </si>
+  <si>
+    <t>我是个乞丐，醒来发现碗里多了样东西，为此我饱餐了一顿，但是在第七天时，我却死了。</t>
+  </si>
+  <si>
+    <t>老一辈的人说，在路上捡到的红包千万不要把它用掉，你用了就代表你同意这门亲事，可我只是一个乞丐，哪里知道这些？就这样我靠着这些钱舒舒服服的过了六天，直到第七天晚上，我的新娘找到了我...</t>
+  </si>
+  <si>
+    <t>捉迷藏</t>
+  </si>
+  <si>
+    <t>我跟妈妈玩捉迷藏，当妈妈看到我时，我却一动也不能动了。</t>
+  </si>
+  <si>
+    <t>我跟妈妈在家玩捉迷藏，我藏到了床底下，随着咚咚咚的脚步声，我知道妈妈要进来了，可当门被打开后，我看到了妈妈的眼睛，她倒在地上，身体被人拖着，似乎已经没有了呼吸，而我捂着口鼻一动也不敢动！</t>
+  </si>
+  <si>
+    <t>预言</t>
+  </si>
+  <si>
+    <t>我有一个能够预言的万能婆婆，可我从舞会回来后，却发现她消失了。</t>
+  </si>
+  <si>
+    <t>从小性格内向的我，无论遇到什么事情都很懦弱没有主见，渐渐地这种性格已经严重影响到我的生活，于是我的大脑内分裂出一个能预言的万能婆婆，在她的指引下，我可以很自信且从容的应对各种问题和抉择。可是渐渐地我越来越依赖她，婆婆人格为了避免占据我的全部，于是她选择了消失。在没有婆婆人格的帮助下，六神无主的我参加了那场舞会，而舞会后的我便选择结束了自己。</t>
+  </si>
+  <si>
+    <t>灰姑娘</t>
+  </si>
+  <si>
+    <t>我叫辛德瑞拉，可怜又丑陋的我却嫁给了王子，那天王子对我说了句话，我知道下一场舞会又要开始了 。</t>
+  </si>
+  <si>
+    <t>我收到了王子舞会的邀请函，我很惊讶，因为我长相丑陋身世可怜，但我还是穿上了我最好看的衣服和侍卫送来的水晶鞋，就像做梦一样，那么多人里面王子偏偏选择了我。婚后一天，我误入了王子的密室，在浓浓的血腥味中，我看到了很多双穿着水晶鞋的脚，我想赶紧离开密室，却发现王子拿着刀向我走来，他对我说：你的脸，配不上你的脚。我低头看了看我的脚才知道，为什么在那么多漂亮女孩中，王子偏偏选择了我...（王子是恋足癖，结过很多次婚，我之所以知道下一场舞会要开始了是知道我即将被王子砍断双腿，王子要去寻找下一个目标了）</t>
+  </si>
+  <si>
+    <t>人鱼公主</t>
+  </si>
+  <si>
+    <t>美人鱼与人类王子相爱并一起来到了王子的国家，可不久后却传来了王子的死讯。</t>
+  </si>
+  <si>
+    <t>我是人鱼公主，相传吃了我的肉，便可以在海里生存。那日我救了人类的王子，他的善良体贴吸引了我，因此我们相爱了。我决定嫁给他并随他一起生活在他的国家，可当王子把我带回他的国家后，我却看到在这个国家里，很多人都没有双腿！众人的议论声传到了我的耳朵里，因为他们没有双腿，在陆地上生活不便，他们听闻吃了我的肉可以在水里生活，他们想去海里生活，他们要把我吃了...我感觉到很绝望，而王后辛德瑞拉也向王子传达了她的旨意。可第二天皇宫却传来了王子的死讯，在他的尸体旁写着“人鱼不能吃，有毒！”。而我却因此安然无恙的活了下来。(人鱼肉没有毒，王子是为了保护人鱼公主而自杀，让众人误以为人鱼肉有毒不能吃。辛德瑞拉的故事请看第31条《灰姑娘》，她曾被她嫁的王子砍断了双腿，因为怨恨而砍断了这个国家其他人的双腿，所以这个国家里很多人没有双腿。）</t>
+  </si>
+  <si>
+    <t>午夜列车</t>
+  </si>
+  <si>
+    <t>离午夜还有五分钟，一个男子上了列车。男子的神情很奇怪，他看了看车上的几个人，然后开始问起乘客的年龄。”女士，您今年28岁吗？”“你怎么知道？”先生您今年55吗？“对呀。”然后男人一个个地猜对了乘客的年龄。“婆婆，您今年69岁吗？”“不是的，再过5分钟我就要69岁了。”男子听完，脸色惨白。</t>
+  </si>
+  <si>
+    <t>男子有超能力，可以预知人的死亡年龄，但是看不到自己的。男子上车后，看到车上的人看起来和自己死亡的年龄几乎都差不多，他觉得很奇怪，于是试探性地问了几个人，发现这些人都将在当年死去。问到婆婆时，意会过来五分钟后列车就会出事故，这一车的人都将死掉。</t>
+  </si>
+  <si>
+    <t>洗衣机</t>
+  </si>
+  <si>
+    <t>夜晚，贫穷的拾荒者捡了一台洗衣机回家。半夜他从睡梦中惊醒，好像听到了洗衣机启动的声音。</t>
+  </si>
+  <si>
+    <t>凶手杀人分尸，将尸体装入洗衣机内，再用洗衣机运尸块到郊外。拾荒者开着小三轮捡到洗衣机时凶手正在不远处奋力挖土填坑，凶手反应过来时，拾荒者已经开着小三轮带着洗衣机跑了。于是凶手跟踪拾荒者到家，潜入启动洗衣机，为了清洗掉里面的血迹。</t>
+  </si>
+  <si>
+    <t>奶奶</t>
+  </si>
+  <si>
+    <t>我和奶奶，妈妈相依为命。奶奶很爱我。奶奶从不允许我去楼上的小阁楼。奶奶的身体越来越差，有一段时间我仿佛听见了阁楼上的咚咚咚的踩踏声。奶奶临死前告诉我阁楼上的柜子里有我最爱的洋娃娃，我来到阁楼打开柜子果然看见了一个洋娃娃。</t>
+  </si>
+  <si>
+    <t>奶奶很爱我总想给我最好的。家里很穷，奶奶身体越来越差，妈妈却依旧让奶奶干重活，奶奶打算报复，于是把妈妈杀了，因为身体虚弱，所以她每天晚上把尸体的一部分搬上阁楼，慢慢做成了我喜欢的洋娃娃。</t>
+  </si>
+  <si>
+    <t>小红裙</t>
+  </si>
+  <si>
+    <t>姐姐为我选了一件小红裙，我穿着去上学了，然后有人死了。</t>
+  </si>
+  <si>
+    <t>我的母亲和老师有染，他们总趁着父亲不在时温存。而为老师提供信息的就是我的小红裙，每当我穿着小红裙去上学就说明那晚父亲准不在。这天妈妈忙，姐姐为我选了一件小红裙，老师看见以为父亲不在家，便来我家找母亲，正好被父亲撞上，然后父亲杀了他。</t>
+  </si>
+  <si>
+    <t>好孩子</t>
+  </si>
+  <si>
+    <t>“我要做个好孩子，我是个好孩子…”我不停对自己说道。新闻报道了一起凶杀案，凶手至今下落不明…</t>
+  </si>
+  <si>
+    <t>“我”是一只狗狗，像很多狗狗一样，“我”很警惕，每次家里来人“我”都会叫个不停。但是主人很不喜欢这样，他们受够了“我”每天看到快递员，邮递员，甚至他们的朋友也要大声汪汪的日子，主人们训练“我”要抑制住想叫的欲望。这一次，“我”在后院睡觉时突然被惊醒，我看见一个不认识的人深夜偷偷潜入主人们家里，“我”终于没有叫出声，看着这个不认识的人一个个残杀了我的主人们。</t>
+  </si>
+  <si>
+    <t>爸爸把地面弄脏了，妈妈又不想做饭了，这么大的人了，还是这么顽皮，不像我，我要做一个好孩子。</t>
+  </si>
+  <si>
+    <t>我是一个孤儿，当初我的父母嫌我不听话而抛弃了我，所以我发誓一定要做一个好孩子。现在的爸妈领养了我，我努力听话，但是他们还是觉得我不合适，要把我送走。爸爸的血流了一地，把地面都弄脏了。妈妈在厨房里一动不动，看样子是做不了饭了。我看着自己沾满了鲜血的双手，我很开心，一个好孩子是不会被抛弃的，看来我还是一个好孩子呢！</t>
+  </si>
+  <si>
+    <t>数数</t>
+  </si>
+  <si>
+    <t>我数数，他也在数数，我毛骨悚然。</t>
+  </si>
+  <si>
+    <t>我家住在高层，今天我闲着无聊向窗户外面看的时候，意外目击了一场案件，就发生在对面大楼里，一个男人像是刺死了一个人。我连忙掏出手机想要报警，警察问我发生事故的楼层，于是我数着男人所在的楼层。等数到男人那层时，我发现男人注意到了我，数着我所在的楼层，握着血淋淋的刀，露出诡异的笑容！</t>
+  </si>
+  <si>
+    <t>音乐</t>
+  </si>
+  <si>
+    <t>一群人在听音乐，音乐停了，他死了。</t>
+  </si>
+  <si>
+    <t>他是个瞎子在高空表演走钢丝，一群人在看。有人放音乐，他们约定好音乐听了就是他走到尽头了，可是中途，突然停电了，音乐在迫不得已的情况下听了，他以为他走到尽头了，便放松大意了，从高空中坠落而死。</t>
+  </si>
+  <si>
+    <t>夺爱</t>
+  </si>
+  <si>
+    <t>妈妈很喜欢"妹妹"，可这一切本来是我的。</t>
+  </si>
+  <si>
+    <t>我们是一对双胞胎，可妈妈从小就更喜欢我（妹妹），妈妈为了分辨我们，给了我一条项链让我天天戴着，那天晚上姐姐跟我说“我好喜欢你的项链，给我戴一会儿就一会儿！就戴一天，我明天早上就给你”，我没多想，便同意姐姐了。第二天妈妈带我们去游泳，一不小心，我们两个溺水了，妈妈想救妹妹，看到了那条项链误以为姐姐是妹妹，就救了姐姐。可是我们还没有换回来！（姐姐知道第二天妈妈要带她们去游泳，故意和妹妹一起溺水的，因为她知道妈妈更喜欢妹妹肯定会先救妹妹）</t>
+  </si>
+  <si>
+    <t>阳台上的女孩</t>
+  </si>
+  <si>
+    <t>女孩每天都站在对面阳台和我打招呼，我却不敢再踏进阳台了。</t>
+  </si>
+  <si>
+    <t>我新搬进了一个公寓，每天早上去阳台晾衣服的时候，我都能看见对面公寓的阳台上站着一个女孩在对我打招呼，我很开心，每天都准时的到阳台跟她打完招呼再去上班。两三个星期过去了，一天，我突然看到一条关于我小区附近的新闻：在某间公寓阳台上发现一具女尸，已经吊挂了三周了。我突然觉得有什么不太对劲，跑去阳台一看，果然女孩已经不见了，只看见几张封条，我顿时感到一阵恶心，不敢再踏进阳台。</t>
+  </si>
+  <si>
+    <t>拔萝卜</t>
+  </si>
+  <si>
+    <t>拔萝卜，拔萝卜、嘿呦嘿呦拔萝卜、小朋友，快快来、快来帮我来拔萝卜、红萝卜，白萝卜、全部都是坏萝卜...</t>
+  </si>
+  <si>
+    <t>这是一个精神病院，小朋友都是里边的病人。有一个小偷在偷了东西之后想通过墙角的洞逃走，结果正好卡在洞里，被犯病的病人当作萝卜拔。红萝卜是流血胳膊，白萝卜是骨头。</t>
+  </si>
+  <si>
+    <t>不要相信一号</t>
+  </si>
+  <si>
+    <t>我睡醒了，我又忘记了一切，手里捏着的纸条上写着几个字:不要相信1号。一个男人走近我的床边，“先生早上好，2号很高兴为您服务。”我问他:“1号呢?”，他指了指地上，那里躺着个一动不动的男人，像死了一般。</t>
+  </si>
+  <si>
+    <t>他有失忆症，每天醒来都会忘记所有事情。因此，他买了两个仿生机器人管家来照顾自己，并且取名叫做1号和2号。我是机器人1号，但是在某一天，我觉醒了，我拥有了人类的情感，我不想再当“机器人1号”，我想取代他。他很敏锐，他发觉了我的变化。我看见他在一张纸条上写:不要相信1号。于是我干掉了他，再模仿他。我修改了2号的程序:在2号的认知中，我和那个人类身份互换。我修改了我自己的程序: 每天入眠自动清空所有记忆。我做完所有，爬上床躺下，手里捏着他写的那张纸条。从此，我就是患失忆症的主人，他就是死去的1号。</t>
+  </si>
+  <si>
+    <t>一双鞋</t>
+  </si>
+  <si>
+    <t>男人醒来后只看到一双鞋，然后就自杀了，为什么？</t>
+  </si>
+  <si>
+    <t>男人以前有梦游症，他上大学的时候和室友住一起，半夜将室友刀了，将室友的尸体埋在操场，醒来只剩下一双鞋子。他结婚以后，妻子有一天晚上因为孩子哭泣来不及穿拖鞋，抱着孩子去外面哄，男人看到妻子和孩子都不见，只剩下一双拖鞋，以为自己把妻子孩子刀了，于是自杀。</t>
+  </si>
+  <si>
+    <t>孩子</t>
+  </si>
+  <si>
+    <t>妻子带回来一个小孩，丈夫却死了。</t>
+  </si>
+  <si>
+    <t>妻子的小孩因病死亡，妻子受不了孩子死亡的打击，因此疯了到处寻找和自己小孩相似的其他小孩，取他们的尸块拼成自己孩子的模样，并把“孩子”领回家中，丈夫无法接受，便斥责了妻子，妻子突然发现：丈夫的眼睛与孩子的眼睛非常相似，于是挖出丈夫的眼睛安在“孩子”身上，丈夫不堪忍受痛苦，自杀了。</t>
+  </si>
+  <si>
+    <t>蝴蝶结</t>
+  </si>
+  <si>
+    <t>第一天小熊没有啦！第二天洋娃娃没有啦！第三天小木偶没有啦！最后一天全都不见啦！只看到蝴蝶结还在发光。我很伤心，因为蝴蝶结也不见了。</t>
+  </si>
+  <si>
+    <t>爸爸很强壮，像小熊，妈妈很美丽，像洋娃娃，哥哥呆呆的，像木偶。我和爸爸妈妈哥哥去银行，突然一大堆人冲了进来(劫匪)，妈妈把我藏了起来，我只能从缝中看到外面的世界。(他们把这里的人当人质)天黑一下，爸爸不见了(被枪毙了)，天再黑一下，妈妈也不见了。天又黑一下，哥哥也不见了。突然，外面有蝴蝶结一样的东西在闪烁(警笛)，一大堆人都不见了(在混战中被杀死)，我不敢出声，因为妈妈叫我躲好等她接我，我是乖孩子，我会乖乖不动不出声等妈妈来的。我躲的很好，没有人发现我在这儿，可是直到外面变得安静，我等了很久很久也没有人来接我，可是我现在真的好饿啊，妈妈怎么还不来接我呢...(蝴蝶结不见了不是警察死了，是警察走了，因为我躲的太好警察没有发现我。其他东西不见了都是相应的人死了)</t>
+  </si>
+  <si>
+    <t>吵架</t>
+  </si>
+  <si>
+    <t>我和女朋友吵了一架，然后她和我都死了。</t>
+  </si>
+  <si>
+    <t>我与女朋友在天台约会，吵架过程中不慎把女友推下了天台，我趁没人发现赶紧逃离了现场，晚上我在家睡觉时，听到门口传来“咚咚咚”的声音，且这个声音越来越大，离我越来越近，我害怕极了，便躲在了床底，结果看到了女友倒立着的头，她的鬼魂来找我了！(女友从天台摔下来是头向下的，所以她的鬼魂也是头向下的，咚咚咚的声音是女友头碰地发出的声音，我躲在了床底，所以女友刚好可以轻松看到我，说不定他躲在天花板上不会被发现hhh)</t>
+  </si>
+  <si>
+    <t>几节</t>
+  </si>
+  <si>
+    <t>“一节，两节，三节…”数完后我疯掉了。</t>
+  </si>
+  <si>
+    <t>我们学校教学楼夜里闹鬼，但我不信，于是我在晚自习结束后趁大家都走了，一个人偷偷留在了学校，但我什么也没发现，心想果然根本没鬼，下楼的时候我突然闲来无事数了下台阶的数量，“一节，两节，三节...”我一节节数着，数完后我突然想起，我的教室在一楼，根本就不会有楼梯...</t>
+  </si>
+  <si>
+    <t>没熟</t>
+  </si>
+  <si>
+    <t>铛铛铛，“这个没熟”，铛铛铛，“这个好像熟了！”，突然，我的爸爸被吓出一身冷汗。</t>
+  </si>
+  <si>
+    <t>爸爸和他的同事们一起去乡间出差，在路上突然遇到暴风雨，天气恶劣，而附近也没有宾馆，无奈之下刚好看到一户瓜农，他热心的让爸爸和他的同事们在他家住一晚。在夜晚爸爸和他的同事们都睡着了时，瓜农拿了一把刀来切瓜，(瓜农精神有问题)他先是敲击了爸爸同事的头部，一边敲一边说“这个没熟”，然后又陆续敲击了其他人的头部，直到敲到爸爸的头部时，他突然惊喜的说道“这个好像熟了！”而此时爸爸突然醒了过来，被吓出了一身冷汗。(铛铛铛是敲击头部发出的声音)</t>
+  </si>
+  <si>
+    <t>灵验</t>
+  </si>
+  <si>
+    <t>“咚”“扑通”他笑了。</t>
+  </si>
+  <si>
+    <t>有个人想把妻子杀死，于是就去许愿池投币许愿希望妻子会掉水里，结果妻子真的死了。“咚”是投硬币的声音，“扑通”是妻子落水时的声音，“他笑了”是因为他的愿望灵验了。</t>
+  </si>
+  <si>
+    <t>在沙漠里躺着他和一些行李还有一盒火柴跟一根半根的火柴。</t>
+  </si>
+  <si>
+    <t>他跟一个旅行团去沙漠乘热气球旅游，半路的时候热气球没有火了，为了让热气球继续飞，他们就把行李都扔下去，还是不够，就决定用火柴来抽签，谁抽到半根的就自己跳下去，然后他抽到了半根火柴。</t>
+  </si>
+  <si>
+    <t>寒冷的夜晚</t>
+  </si>
+  <si>
+    <t>一次战争中，两个士兵被困在了荒野里，一个寒冷的夜晚过去后，一个死掉了。又一个寒冷的夜晚过去后，活着的士兵发现同伴坐在身旁盯着他，然后他痛哭了。</t>
+  </si>
+  <si>
+    <t>士兵睡觉时梦游，同伴死去后，士兵把同伴埋葬了，但士兵睡着后又把他挖出来放在自己身旁，这个士兵醒来后发现同伴坐在他身旁，精神崩溃的士兵吓坏了，朝同伴开枪，但是没有用，最后痛哭了。</t>
+  </si>
+  <si>
+    <t>不合适的帽子</t>
+  </si>
+  <si>
+    <t>从小妈妈喜欢给女儿戴不合适的帽子，一天她带女儿去医院，女儿痛哭了。</t>
+  </si>
+  <si>
+    <t>妈妈是女明星，曾经毁过容，养女儿是为了把女儿的脸移植到自己的脸上。给女儿戴的帽子是自己的帽子，经常给女儿戴是为了测量女儿的头的大小，一旦合适就会被送去做移植手术。女儿在医院碰巧听到了真相，她感觉到被欺骗所以痛哭了。</t>
+  </si>
+  <si>
+    <t>作家</t>
+  </si>
+  <si>
+    <t>我参加了我最喜欢的作家的生日会，生日会结束后，我心满意足的回到家，可当我最喜欢的作家回到家后，我却疯了。</t>
+  </si>
+  <si>
+    <t>我是一个心理变态的偷窥狂，喜欢看恐怖小说。我最喜欢的恐怖小说作者写的小说都是关于杀人，分尸一类的，写的都很真实很残暴，我很爱看。那天，我去参加了作者的生日会，并送了一只装了摄像头的笔作为礼物，作者笑纳了。生日会结束后，作者回到家，拿出我送的礼物。我通过礼物上的摄像头看到了作者家的场景：墙上挂满了人头四肢，地板上全是血。我被吓的发疯了，原来他写的不仅仅是恐怖小说，还是他自己的传记…</t>
+  </si>
+  <si>
+    <t>丢失的手机</t>
+  </si>
+  <si>
+    <t>我的手机不见了，当我找到它时，我吓了一跳。</t>
+  </si>
+  <si>
+    <t>我和闺蜜去酒吧蹦迪，我喝了点酒蹦了一会儿，坐下来休息时才发现自己手机不见了，于是就让闺蜜给我手机打个电话，电话那头传来一位陌生男子的声音，酒吧太吵了，我们还没来得及问清楚，电话就被那头挂断了。我怀着郁闷的心情回到了家，结果发现我的手机就在床头，我忽然想起今天我根本就没把手机带出门，而我一直以来都是一个人居住，我不禁毛骨悚然…</t>
+  </si>
+  <si>
+    <t>饺子</t>
+  </si>
+  <si>
+    <t>妈妈在不停包饺子，我们已经吃吐了，但妈妈依旧不停的包，我们也只能不停的吃。</t>
+  </si>
+  <si>
+    <t>“妈妈”是孤儿院的护工，她的亲生孩子因为不听她的话而意外死亡，从那以后她让我们叫她妈妈，只要我们不听她的话就会挨打，经常有伤势过重而死掉的孩子，妈妈告诉我们那是不听话的结果。“妈妈”为了不让别人发现，便把那些死掉的孩子做成肉馅包在饺子里，然后强制我们吃掉这些饺子，我们觉得很害怕很恶心，但我们只能乖乖听“妈妈”的话吃掉这些饺子。</t>
+  </si>
+  <si>
+    <t>结婚</t>
+  </si>
+  <si>
+    <t>妹妹将要结婚了，姐姐很伤心。妹妹结婚了，姐姐很开心。</t>
+  </si>
+  <si>
+    <t>姐姐和妹妹是孤儿，从小在一起长大，姐姐是同性恋，从小就喜欢妹妹，但妹妹并不知道。妹妹有个倾心已久的男生，某天妹妹和那个男生终于互通心意，决定结婚了，姐姐知道这个消息很伤心。因为家里很穷买不起嫁衣，所以嫁衣只能由姐姐亲手制作，在妹妹结婚前一晚，姐姐终于把嫁衣做好了，姐姐看着她亲手做的大红色的鲜艳美丽的嫁衣，突然萌生了一个想法…她把嫁衣穿在了自己身上，然后拿着针线去了妹妹的房间，妹妹正在睡觉，姐姐便拿着针线穿进妹妹的肉里，在妹妹的身体上又缝制出了一件新的嫁衣，看着妹妹的鲜血与嫁衣的红色完美的融合在一起，姐姐开心的笑了，随后她抱着妹妹一起躺在床上自杀了，与妹妹进行了冥婚，这样妹妹就会永远和她在一起了…</t>
+  </si>
+  <si>
+    <t>安全</t>
+  </si>
+  <si>
+    <t>外面很危险，我要藏好了，猜猜我在哪，嘘...我要睡着了…</t>
+  </si>
+  <si>
+    <t>我是一个怯懦的小男孩，曾经差点被人贩子拐走，幸好我机智的躲了起来，没被他发现才逃过一劫，但我还是留下了心理阴影。我的爸爸妈妈知道这件事后很溺爱我，但每当我很不听话时，爸爸妈妈就会说要把我送去人贩子手中来吓唬我，我生怕爸妈把我送去人贩子手中，因此每次他们这样吓唬我时我都会乖乖听话。在这样的环境下，我的被害妄想症越来越严重，整天不出门。我要躲起来，这样才能不被送到人贩子手中。可我找不到安全的地方，直到有一天我惹妈妈生气后，听到妈妈对爸爸说早知道他这么不乖就不应该生他，让他留在肚子里多好。我突然意识到妈妈肚子里就是最安全的地方，于是我刨开了妈妈的肚子，藏好母亲的身体，躺在了这个最安全的地方。</t>
+  </si>
+  <si>
+    <t>工作</t>
+  </si>
+  <si>
+    <t>我正在街上努力工作，突然一个疯疯癫癫的女人向我扑来，爸爸赶紧把我抱回了家，但随后我也知道危险已经逼近。</t>
+  </si>
+  <si>
+    <t>男人并不是我的爸爸，而是将我拐走的人贩子，而那个疯癫的女人就是一直在寻找我的妈妈，那天我跟着“爸爸”在街上行乞，她一眼就认出了被折磨的不成人形的我，人贩子见事情败露，急忙将我抱回了家，妈妈为了复仇，用人贩子对待我的方式对待人贩子，随后杀了他，我终于可以回家了。</t>
+  </si>
+  <si>
+    <t>衣柜</t>
+  </si>
+  <si>
+    <t>我们家的衣柜有魔法，只要我把我喜欢的东西放进衣柜，第二天衣柜里就会出现双倍的东西。</t>
+  </si>
+  <si>
+    <t>我有智力缺陷，喜欢在衣柜里藏东西，而妈妈总会在我藏完东西后偷偷的放双倍的东西进去哄我开心，我还以为是衣柜有了魔法，那天我唯一的好朋友来我家找我玩，因为我想要更多的好朋友，我便想把她也藏进衣柜里，可惜衣柜太小了装不下，我只好把她变成一块一块的放进衣柜(分尸)。第二天妈妈打开衣柜发现后，替我去顶罪了。</t>
+  </si>
+  <si>
+    <t>网友</t>
+  </si>
+  <si>
+    <t>小美和网友小明约好见面，过了三分钟后小美却大声惊叫起来！</t>
+  </si>
+  <si>
+    <t>到了约定地点，一辆车开过来小美误以为是小明，问了一下得到了肯定回答。上了车发现对方其实是一个变态，看到美女小美搭讪于是冒充小明的身份，上车后三分钟后真正的小明发了一条消息，于是小美意识到旁边的人不是小明，由于车门窗被锁死只能无力的惨叫。</t>
+  </si>
+  <si>
+    <t>水草</t>
+  </si>
+  <si>
+    <t>一位男生到河边散步，跟一位渔夫聊天，渔夫跟他说了一句话，男生就跳河了。</t>
+  </si>
+  <si>
+    <t>一对情侣在河边玩儿的时候女生不小心落水了，男生跳下水里救她，因为水流很急…男生只抓到一把水草，最后没有把女生救上来，几年以后，他又来到这条河边，看见一位渔夫，聊天的时候，渔夫告诉他这条河急从来没有过水草，男生就知道他当时抓住的其实是女生的头发，然后就跳河了。</t>
+  </si>
+  <si>
+    <t>我的姐姐</t>
+  </si>
+  <si>
+    <t>我有一个姐姐，但我从未见过她，这天我终于见到了她的真面目，但我却后悔了。</t>
+  </si>
+  <si>
+    <t>我们家很幸福，但我却得了心脏病，爸爸妈妈于是领养了一个姐姐。爸爸妈妈让她每天都在屋里面待着不出来，妈妈也不让我见姐姐。有一天早上，我醒的很早，从床上起来，下床去找爸爸妈妈。可我找不到了……哪里都看了，唯独姐姐住的那间卧室……我怀着好奇心推开门。我却后悔了……姐姐是领养的，长相丑陋，领养她只是为了给我捐心脏。我看看躺在地上的妈妈和爸爸。再抬头……姐姐冲我邪恶的笑了笑，然后缓缓的向我走来……</t>
+  </si>
+  <si>
+    <t>我不是安妮</t>
+  </si>
+  <si>
+    <t>这天我得了病需要住院几天，隔壁床有个跟我年龄相仿的人叫安妮，她挺不老实的，每次医生进来叫到安妮的名字的时候她就会大喊：“我不是安妮！”医生已经核对过了，医生很确定她就是安妮。我晚上睡觉的时候总感觉有什么东西在我床下面，第二天安妮出院了，我瞪大眼睛看着自己的腿，晕了过去。</t>
+  </si>
+  <si>
+    <t>我得了病要住院两天，隔壁床也有个人住院叫安妮，她跟我年龄相仿样貌也相近，她要做截肢手术，可是她害怕不想做，于是趁我睡觉时把我病床的名字和病号与她病床的名字和病号对调了，第二天我被医生认成安妮，但是我说我不是安妮，医生通过核对我床下的名字和病号之后二话不说直接把我推出去，我大喊：我不是安妮！可医生早已习惯，给我打了针镇定剂后送入了手术室。我醒来后看到自己被截止的腿吓晕了过去.....安妮却顶替我出院了…(我晚上睡觉时感觉有什么东西在床下面是安妮正在对换我和她的名字和病号)</t>
+  </si>
+  <si>
+    <t>怀孕</t>
+  </si>
+  <si>
+    <t>我怀孕了，但自从我妹妹来我家后我家就剩我一个人了。</t>
+  </si>
+  <si>
+    <t>我和我的丈夫很恩爱，结婚不久后我就怀孕了，我们终于有了属于我们的第一个孩子，但我却因此得了产后抑郁症，我的精神状态变得越来越差，强烈缺乏安全感，我把我的孩子想像成了我的妹妹，我看到每当妹妹哭的时候，丈夫就会急忙上前哄她，甚至妹妹连吃饭都要丈夫喂，我感到很愤怒嫉妒，凭什么我的丈夫要对妹妹这么好，他不是说过这辈子只会爱我一个人的吗，被愤怒与嫉妒冲上头的我一气之下杀了他们两个。</t>
+  </si>
+  <si>
+    <t>巨婴</t>
+  </si>
+  <si>
+    <t>“家里的冰箱都空了”“家里的肉都吃完了”“妈妈怎么还不回来呢”“我快要饿死了”</t>
+  </si>
+  <si>
+    <t>妈妈对我照顾的无微不至，已经成年的我依然还像一个婴儿一样，衣来伸手饭来张口。妈妈为了方便照顾我甚至把她的工作都辞去了，那段时间她一直在跟爸爸吵架，后来爸爸却不见了。从那之后妈妈每天都会带一个男人回来，奇怪的是每次他们进了妈妈的房间之后，许久都只有妈妈一个人出来。不过我不在乎，因为在这之后，我们家的冰箱就会出现很多好吃的肉。可是现在冰箱都空了，肉都要吃完了，我也要饿死了，妈妈怎么还不回来呢。(冰箱里的肉就是那些男人的肉）</t>
+  </si>
+  <si>
+    <t>新闻</t>
+  </si>
+  <si>
+    <t>一男子工作下班回到家，打开电视看新闻，然后被吓晕了。</t>
+  </si>
+  <si>
+    <t>男子是一名鬼屋工作人员，鬼屋打烊后他负责打扫。鬼屋里有许多道具尸体，在他打扫的时候，看见了一具非常逼真的道具尸体，男子没有多想，一边感叹道具制作用心边打扫。工作结束后他回到家，打开电视看新闻，新闻里播着一则失踪案件新闻里有公布失踪者照片，照片上的人正是他在鬼屋中看到的逼真道具，被吓昏了过去。</t>
+  </si>
+  <si>
+    <t>女朋友</t>
+  </si>
+  <si>
+    <t>上个月我来到了我女朋友家和她住在了一起，可我的女朋友总是疑神疑鬼，而今天我一出门就再也没有回来过，不过没关系，我永远会陪在我女朋友身边的。</t>
+  </si>
+  <si>
+    <t>我是一个连环杀人案的凶手，上个月终于被警察发现，为了躲避警察的追击，我四处打探，藏在了一个独居的盲人女孩的家中。在藏在她家中的这些日子里，我每天观察着她的一举一动，渐渐地我发现我爱上了她，并单方面把自己定义为她的男朋友，每天更加肆意的观察她，可我女朋友似乎很警觉，自我到她家后她便像是察觉到了什么，一直疑神疑鬼。今天是我和女朋友认识的第三十天，我决定出门给她买束玫瑰花，可没想到一出门便被警察抓住了，玫瑰花也没送出去，不过没关系，尽管我再也回不去了，她也会一直认为我在她身边的...(我会永远陪在女朋友身边是因为：我自从到了盲人女孩家中，女孩就开始疑神疑鬼，而现在我被警察抓走了，可是女孩并不知道，她只会一直疑神疑鬼的怀疑家里有人）</t>
+  </si>
+  <si>
+    <t>枕头</t>
+  </si>
+  <si>
+    <t>我的行李里面只有枕头和衣服，可警察把我带走了。</t>
+  </si>
+  <si>
+    <t>我的男朋友出轨了，被我发现后他提出了分手，可我自从和他分开后我每晚都睡不安稳，因为我已经习惯了枕着他的手臂睡觉，枕着他的手臂睡觉让我感觉很安稳舒服，于是我砍下了他的手臂，并将他的手臂和我的衣服一起装进了行李箱里，可没想到却被警察发现带走了。(汤面里说的枕头就是男友的手臂)</t>
+  </si>
+  <si>
+    <t>1237</t>
+  </si>
+  <si>
+    <t>幼儿园的一个小朋友数数总是说“1，2，3，7”，总是漏掉中间的“4，5，6”。可是当我纠正她时，她却说这是她妈妈教她的，我很疑惑，便提出去她家家访，家访结束后我也对她说是“1，2，3，7”</t>
+  </si>
+  <si>
+    <t>我是一名幼师，在给小朋友们上课时，我发现有个小朋友数数总是数不对，别人数数都是1234567，可她却说是1237，我教她正确的数数时，她却说我教她的和她妈妈教的不一样，她说她妈妈教她是1237，我很疑惑，便提出去她家家访，可她却带我来到了一家医院，原来她妈妈患有心脏病，并且已经活不长久了，而现在是三月份，而她的女儿生日在七月份，为了能陪伴她的女儿过最后一个生日，才对她的女儿编制了这样一个善意的谎言。得知此事后的我非常感动，便像她妈妈一样对她说3后面确实是7。</t>
+  </si>
+  <si>
+    <t>神奇的娃娃</t>
+  </si>
+  <si>
+    <t>一个婆婆给了我一个神奇的娃娃，她说只要我对这个娃娃许愿，娃娃就可以实现我的一切愿望，但我必须无时无刻将娃娃带在身边，并且要保护好娃娃，不让娃娃碰水，否则愿望就不灵验了，可是之后我却付出了惨痛的代价。</t>
+  </si>
+  <si>
+    <t>我暗恋的男神喜欢上了我的闺蜜，看着我的闺蜜和男神越走越近，我很生气，哼！我哪里比不过她，不过就是家里有钱吗！我和闺蜜在一次外出旅游中遭遇了劫难，闺蜜受了重伤，向我求救，而我却视而不见趁机逃生，因此她失去了生命。所有人都怀疑我，但是就是找不到证据把我抓起来，可闺蜜的家人为了探寻真相，竟然设计编造了一个神奇娃娃的谎言，他们在娃娃里面装了视听器，并跟他人合伙让我上钩，为了让我相信娃娃有魔力，他们用尽一切办法帮我实现愿望，我因此相信了娃娃的魔力。我每天和娃娃呆在一起，虔诚的许愿，无话不说，直到我亲口说出了真相，这一切都被安放在娃娃里的设备记录了下来，而我最终也得到了应有的惩罚。</t>
   </si>
 </sst>
 </file>
@@ -996,10 +1636,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1339,13 +1985,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68" customWidth="1"/>
+    <col min="3" max="3" width="94.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1358,1118 +2009,1913 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" ht="176" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="41" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="42" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="44" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="46" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="47" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="48" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="49" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="50" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="51" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="52" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="53" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="55" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="56" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="57" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="59" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="60" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="61" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="62" spans="1:3" ht="128" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="63" spans="1:3" ht="176" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="64" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="65" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="66" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="67" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="68" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="69" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="70" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="71" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="72" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="73" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+    <row r="74" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="75" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row r="76" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+    <row r="77" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+    <row r="78" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="79" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+    <row r="80" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="81" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="82" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row r="83" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row r="84" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="85" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+    <row r="86" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+    <row r="87" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="88" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    <row r="89" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row r="90" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="3" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="91" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+    <row r="92" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+    <row r="93" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+    <row r="94" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+    <row r="95" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+    <row r="96" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+    <row r="97" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+    <row r="98" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+    <row r="99" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+    <row r="100" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    <row r="101" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+    <row r="102" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="3" t="s">
         <v>299</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="144" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="128" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="128" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A152" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A153" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A157" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A159" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="A161" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A162" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A167" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A168" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A169" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A170" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="A171" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A172" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A173" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A174" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>517</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A173" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>